--- a/contratos/contratos-2-2011.xlsx
+++ b/contratos/contratos-2-2011.xlsx
@@ -652,13 +652,13 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
-  </si>
-  <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
+  </si>
+  <si>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>OLIVERA JOSE PEDRO</t>
@@ -685,7 +685,7 @@
     <t>ORGANIZACION DELASOIE HNOS. S.A.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>STEVEN MIGUEL ANGEL</t>
@@ -1105,493 +1105,493 @@
     <t>11</t>
   </si>
   <si>
-    <t>725,50</t>
-  </si>
-  <si>
-    <t>2.655,00</t>
-  </si>
-  <si>
-    <t>2.880,00</t>
-  </si>
-  <si>
-    <t>6.150,00</t>
-  </si>
-  <si>
-    <t>850,40</t>
-  </si>
-  <si>
-    <t>964.380,00</t>
-  </si>
-  <si>
-    <t>1.895,00</t>
-  </si>
-  <si>
-    <t>144,00</t>
-  </si>
-  <si>
-    <t>15.325,07</t>
-  </si>
-  <si>
-    <t>92.613,19</t>
-  </si>
-  <si>
-    <t>14,00</t>
-  </si>
-  <si>
-    <t>6.785,90</t>
-  </si>
-  <si>
-    <t>597,00</t>
-  </si>
-  <si>
-    <t>12.580,07</t>
-  </si>
-  <si>
-    <t>223,60</t>
-  </si>
-  <si>
-    <t>1.662,90</t>
-  </si>
-  <si>
-    <t>6.556,75</t>
-  </si>
-  <si>
-    <t>10.015,00</t>
-  </si>
-  <si>
-    <t>239,11</t>
-  </si>
-  <si>
-    <t>69,16</t>
-  </si>
-  <si>
-    <t>1.113,00</t>
-  </si>
-  <si>
-    <t>1.730,00</t>
-  </si>
-  <si>
-    <t>10.157,60</t>
-  </si>
-  <si>
-    <t>98,50</t>
-  </si>
-  <si>
-    <t>1.786,00</t>
-  </si>
-  <si>
-    <t>7.873,50</t>
-  </si>
-  <si>
-    <t>962,00</t>
-  </si>
-  <si>
-    <t>1.039,52</t>
-  </si>
-  <si>
-    <t>39.792,22</t>
-  </si>
-  <si>
-    <t>4.190,00</t>
-  </si>
-  <si>
-    <t>382,00</t>
-  </si>
-  <si>
-    <t>3.565,97</t>
-  </si>
-  <si>
-    <t>712,45</t>
-  </si>
-  <si>
-    <t>1.158,73</t>
-  </si>
-  <si>
-    <t>1.110,00</t>
-  </si>
-  <si>
-    <t>996,90</t>
-  </si>
-  <si>
-    <t>10.881,00</t>
-  </si>
-  <si>
-    <t>27,00</t>
-  </si>
-  <si>
-    <t>336,00</t>
-  </si>
-  <si>
-    <t>310,24</t>
-  </si>
-  <si>
-    <t>21,06</t>
-  </si>
-  <si>
-    <t>1.918,62</t>
-  </si>
-  <si>
-    <t>1.968,18</t>
-  </si>
-  <si>
-    <t>5.358,50</t>
-  </si>
-  <si>
-    <t>125,71</t>
-  </si>
-  <si>
-    <t>243,00</t>
-  </si>
-  <si>
-    <t>11.335,00</t>
-  </si>
-  <si>
-    <t>16,80</t>
-  </si>
-  <si>
-    <t>3.304,10</t>
-  </si>
-  <si>
-    <t>174,55</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>1.432,81</t>
-  </si>
-  <si>
-    <t>4.020,00</t>
-  </si>
-  <si>
-    <t>5.905,00</t>
-  </si>
-  <si>
-    <t>15.216,00</t>
-  </si>
-  <si>
-    <t>1.495,00</t>
-  </si>
-  <si>
-    <t>1.260,00</t>
-  </si>
-  <si>
-    <t>4.485,00</t>
-  </si>
-  <si>
-    <t>3.545,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>53.748,00</t>
-  </si>
-  <si>
-    <t>7.151,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>159,00</t>
-  </si>
-  <si>
-    <t>2.518,00</t>
-  </si>
-  <si>
-    <t>3,00</t>
-  </si>
-  <si>
-    <t>2.393,15</t>
-  </si>
-  <si>
-    <t>2.102,00</t>
-  </si>
-  <si>
-    <t>584,60</t>
-  </si>
-  <si>
-    <t>7.901,53</t>
-  </si>
-  <si>
-    <t>2.499,00</t>
-  </si>
-  <si>
-    <t>0,08</t>
-  </si>
-  <si>
-    <t>0,06</t>
-  </si>
-  <si>
-    <t>1.500.000,00</t>
-  </si>
-  <si>
-    <t>0,94</t>
-  </si>
-  <si>
-    <t>103.769,60</t>
-  </si>
-  <si>
-    <t>1.030.560,00</t>
-  </si>
-  <si>
-    <t>0,70</t>
-  </si>
-  <si>
-    <t>0,02</t>
-  </si>
-  <si>
-    <t>0,82</t>
-  </si>
-  <si>
-    <t>43,80</t>
-  </si>
-  <si>
-    <t>142,39</t>
-  </si>
-  <si>
-    <t>5.499,18</t>
-  </si>
-  <si>
-    <t>6.594,00</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>9.080,10</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>4.161,79</t>
-  </si>
-  <si>
-    <t>175,70</t>
-  </si>
-  <si>
-    <t>3.090,00</t>
-  </si>
-  <si>
-    <t>747,00</t>
-  </si>
-  <si>
-    <t>1.327,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>570,00</t>
-  </si>
-  <si>
-    <t>1.726,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>55.000,00</t>
-  </si>
-  <si>
-    <t>12.900,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>60.338,70</t>
-  </si>
-  <si>
-    <t>6.900,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>8.350,00</t>
-  </si>
-  <si>
-    <t>60.750,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>108,82</t>
-  </si>
-  <si>
-    <t>28,38</t>
-  </si>
-  <si>
-    <t>510,20</t>
-  </si>
-  <si>
-    <t>108,00</t>
-  </si>
-  <si>
-    <t>51.233,50</t>
-  </si>
-  <si>
-    <t>560,00</t>
-  </si>
-  <si>
-    <t>1.370,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>6.023,87</t>
-  </si>
-  <si>
-    <t>6.050,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>15.088,80</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>1.750,00</t>
-  </si>
-  <si>
-    <t>1.105,00</t>
-  </si>
-  <si>
-    <t>8.720,00</t>
-  </si>
-  <si>
-    <t>436,00</t>
-  </si>
-  <si>
-    <t>873,00</t>
-  </si>
-  <si>
-    <t>1.380,00</t>
-  </si>
-  <si>
-    <t>384,00</t>
-  </si>
-  <si>
-    <t>49,20</t>
-  </si>
-  <si>
-    <t>1.455,00</t>
-  </si>
-  <si>
-    <t>1.847,39</t>
-  </si>
-  <si>
-    <t>2.326,00</t>
-  </si>
-  <si>
-    <t>132,00</t>
-  </si>
-  <si>
-    <t>733,00</t>
-  </si>
-  <si>
-    <t>7,50</t>
-  </si>
-  <si>
-    <t>980,00</t>
-  </si>
-  <si>
-    <t>23.501,49</t>
-  </si>
-  <si>
-    <t>1.049,00</t>
-  </si>
-  <si>
-    <t>660,18</t>
-  </si>
-  <si>
-    <t>568,75</t>
-  </si>
-  <si>
-    <t>367,00</t>
-  </si>
-  <si>
-    <t>128,70</t>
-  </si>
-  <si>
-    <t>12.338,30</t>
-  </si>
-  <si>
-    <t>982,99</t>
-  </si>
-  <si>
-    <t>2.659,60</t>
-  </si>
-  <si>
-    <t>2.305,66</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>690,00</t>
-  </si>
-  <si>
-    <t>190.000,00</t>
-  </si>
-  <si>
-    <t>69.500,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>137.732,00</t>
-  </si>
-  <si>
-    <t>106.460,00</t>
-  </si>
-  <si>
-    <t>124.940,00</t>
-  </si>
-  <si>
-    <t>232.386,00</t>
-  </si>
-  <si>
-    <t>134.208,00</t>
-  </si>
-  <si>
-    <t>180.000,00</t>
-  </si>
-  <si>
-    <t>98.012,00</t>
-  </si>
-  <si>
-    <t>229.295,87</t>
-  </si>
-  <si>
-    <t>69.400,00</t>
-  </si>
-  <si>
-    <t>1.925,00</t>
-  </si>
-  <si>
-    <t>1.040,85</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
+    <t>725.50</t>
+  </si>
+  <si>
+    <t>2655.00</t>
+  </si>
+  <si>
+    <t>2880.00</t>
+  </si>
+  <si>
+    <t>6150.00</t>
+  </si>
+  <si>
+    <t>850.40</t>
+  </si>
+  <si>
+    <t>964380.00</t>
+  </si>
+  <si>
+    <t>1895.00</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>15325.07</t>
+  </si>
+  <si>
+    <t>92613.19</t>
+  </si>
+  <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>6785.90</t>
+  </si>
+  <si>
+    <t>597.00</t>
+  </si>
+  <si>
+    <t>12580.07</t>
+  </si>
+  <si>
+    <t>223.60</t>
+  </si>
+  <si>
+    <t>1662.90</t>
+  </si>
+  <si>
+    <t>6556.75</t>
+  </si>
+  <si>
+    <t>10015.00</t>
+  </si>
+  <si>
+    <t>239.11</t>
+  </si>
+  <si>
+    <t>69.16</t>
+  </si>
+  <si>
+    <t>1113.00</t>
+  </si>
+  <si>
+    <t>1730.00</t>
+  </si>
+  <si>
+    <t>10157.60</t>
+  </si>
+  <si>
+    <t>98.50</t>
+  </si>
+  <si>
+    <t>1786.00</t>
+  </si>
+  <si>
+    <t>7873.50</t>
+  </si>
+  <si>
+    <t>962.00</t>
+  </si>
+  <si>
+    <t>1039.52</t>
+  </si>
+  <si>
+    <t>39792.22</t>
+  </si>
+  <si>
+    <t>4190.00</t>
+  </si>
+  <si>
+    <t>382.00</t>
+  </si>
+  <si>
+    <t>3565.97</t>
+  </si>
+  <si>
+    <t>712.45</t>
+  </si>
+  <si>
+    <t>1158.73</t>
+  </si>
+  <si>
+    <t>1110.00</t>
+  </si>
+  <si>
+    <t>996.90</t>
+  </si>
+  <si>
+    <t>10881.00</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>336.00</t>
+  </si>
+  <si>
+    <t>310.24</t>
+  </si>
+  <si>
+    <t>21.06</t>
+  </si>
+  <si>
+    <t>1918.62</t>
+  </si>
+  <si>
+    <t>1968.18</t>
+  </si>
+  <si>
+    <t>5358.50</t>
+  </si>
+  <si>
+    <t>125.71</t>
+  </si>
+  <si>
+    <t>243.00</t>
+  </si>
+  <si>
+    <t>11335.00</t>
+  </si>
+  <si>
+    <t>16.80</t>
+  </si>
+  <si>
+    <t>3304.10</t>
+  </si>
+  <si>
+    <t>174.55</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>1432.81</t>
+  </si>
+  <si>
+    <t>4020.00</t>
+  </si>
+  <si>
+    <t>5905.00</t>
+  </si>
+  <si>
+    <t>15216.00</t>
+  </si>
+  <si>
+    <t>1495.00</t>
+  </si>
+  <si>
+    <t>1260.00</t>
+  </si>
+  <si>
+    <t>4485.00</t>
+  </si>
+  <si>
+    <t>3545.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>53748.00</t>
+  </si>
+  <si>
+    <t>7151.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>2518.00</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>2393.15</t>
+  </si>
+  <si>
+    <t>2102.00</t>
+  </si>
+  <si>
+    <t>584.60</t>
+  </si>
+  <si>
+    <t>7901.53</t>
+  </si>
+  <si>
+    <t>2499.00</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>1500000.00</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>103769.60</t>
+  </si>
+  <si>
+    <t>1030560.00</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>43.80</t>
+  </si>
+  <si>
+    <t>142.39</t>
+  </si>
+  <si>
+    <t>5499.18</t>
+  </si>
+  <si>
+    <t>6594.00</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>9080.10</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>4161.79</t>
+  </si>
+  <si>
+    <t>175.70</t>
+  </si>
+  <si>
+    <t>3090.00</t>
+  </si>
+  <si>
+    <t>747.00</t>
+  </si>
+  <si>
+    <t>1327.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>570.00</t>
+  </si>
+  <si>
+    <t>1726.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>12900.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>60338.70</t>
+  </si>
+  <si>
+    <t>6900.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>8350.00</t>
+  </si>
+  <si>
+    <t>60750.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>108.82</t>
+  </si>
+  <si>
+    <t>28.38</t>
+  </si>
+  <si>
+    <t>510.20</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>51233.50</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>1370.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>6023.87</t>
+  </si>
+  <si>
+    <t>6050.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>15088.80</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>1750.00</t>
+  </si>
+  <si>
+    <t>1105.00</t>
+  </si>
+  <si>
+    <t>8720.00</t>
+  </si>
+  <si>
+    <t>436.00</t>
+  </si>
+  <si>
+    <t>873.00</t>
+  </si>
+  <si>
+    <t>1380.00</t>
+  </si>
+  <si>
+    <t>384.00</t>
+  </si>
+  <si>
+    <t>49.20</t>
+  </si>
+  <si>
+    <t>1455.00</t>
+  </si>
+  <si>
+    <t>1847.39</t>
+  </si>
+  <si>
+    <t>2326.00</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>733.00</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>980.00</t>
+  </si>
+  <si>
+    <t>23501.49</t>
+  </si>
+  <si>
+    <t>1049.00</t>
+  </si>
+  <si>
+    <t>660.18</t>
+  </si>
+  <si>
+    <t>568.75</t>
+  </si>
+  <si>
+    <t>367.00</t>
+  </si>
+  <si>
+    <t>128.70</t>
+  </si>
+  <si>
+    <t>12338.30</t>
+  </si>
+  <si>
+    <t>982.99</t>
+  </si>
+  <si>
+    <t>2659.60</t>
+  </si>
+  <si>
+    <t>2305.66</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>690.00</t>
+  </si>
+  <si>
+    <t>190000.00</t>
+  </si>
+  <si>
+    <t>69500.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>137732.00</t>
+  </si>
+  <si>
+    <t>106460.00</t>
+  </si>
+  <si>
+    <t>124940.00</t>
+  </si>
+  <si>
+    <t>232386.00</t>
+  </si>
+  <si>
+    <t>134208.00</t>
+  </si>
+  <si>
+    <t>180000.00</t>
+  </si>
+  <si>
+    <t>98012.00</t>
+  </si>
+  <si>
+    <t>229295.87</t>
+  </si>
+  <si>
+    <t>69400.00</t>
+  </si>
+  <si>
+    <t>1925.00</t>
+  </si>
+  <si>
+    <t>1040.85</t>
+  </si>
+  <si>
+    <t>1700.00</t>
   </si>
 </sst>
 </file>
